--- a/xlsx/孔德_intext.xlsx
+++ b/xlsx/孔德_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E9%A6%AC%E7%88%BE%C2%B7%E5%AD%94%E5%BE%B7</t>
   </si>
   <si>
-    <t>烏馬爾·孔德</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_孔德</t>
+    <t>乌马尔·孔德</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_孔德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8F%A4%E6%96%AF%E7%89%B9%C2%B7%E5%AD%94%E5%BE%B7</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>大韓民國</t>
+    <t>大韩民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE</t>
   </si>
   <si>
-    <t>首爾</t>
+    <t>首尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B0%94%E7%89%B9%E5%88%AB%E5%B8%82%E9%83%BD%E5%B8%82%E9%93%81%E9%81%93%E5%85%AC%E7%A4%BE</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE%E5%9C%B0%E9%90%B55%E8%99%9F%E7%B7%9A</t>
   </si>
   <si>
-    <t>首爾地鐵5號線</t>
+    <t>首尔地铁5号线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE%E5%9C%B0%E9%90%B56%E8%99%9F%E7%B7%9A</t>
   </si>
   <si>
-    <t>首爾地鐵6號線</t>
+    <t>首尔地铁6号线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%B7%9D%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>仁川國際機場鐵路</t>
+    <t>仁川国际机场铁路</t>
   </si>
 </sst>
 </file>
